--- a/Code/Results/Cases/Case_9_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029559469511192</v>
+        <v>1.027380892307294</v>
       </c>
       <c r="D2">
-        <v>1.046172884206616</v>
+        <v>1.043234612534806</v>
       </c>
       <c r="E2">
-        <v>1.040972466516964</v>
+        <v>1.039063001983342</v>
       </c>
       <c r="F2">
-        <v>1.049668658547064</v>
+        <v>1.047607069028883</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056002056951147</v>
+        <v>1.054637130707435</v>
       </c>
       <c r="J2">
-        <v>1.050890628241791</v>
+        <v>1.048772388697675</v>
       </c>
       <c r="K2">
-        <v>1.057024360315398</v>
+        <v>1.05412277095577</v>
       </c>
       <c r="L2">
-        <v>1.05188904227771</v>
+        <v>1.050003684852321</v>
       </c>
       <c r="M2">
-        <v>1.060476825285824</v>
+        <v>1.058440733388326</v>
       </c>
       <c r="N2">
-        <v>1.02031313777577</v>
+        <v>1.01976812053019</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.056435568873855</v>
+        <v>1.054824171566029</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051391303675681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049348325671651</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026199682014154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033443653344512</v>
+        <v>1.031059442571245</v>
       </c>
       <c r="D3">
-        <v>1.048880513578029</v>
+        <v>1.045703028914119</v>
       </c>
       <c r="E3">
-        <v>1.044013273534019</v>
+        <v>1.041918403042033</v>
       </c>
       <c r="F3">
-        <v>1.052548384907072</v>
+        <v>1.050306431817614</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057022205826496</v>
+        <v>1.055527320583195</v>
       </c>
       <c r="J3">
-        <v>1.053062347749152</v>
+        <v>1.050737774555304</v>
       </c>
       <c r="K3">
-        <v>1.058923946585759</v>
+        <v>1.05578271105196</v>
       </c>
       <c r="L3">
-        <v>1.054112343560321</v>
+        <v>1.052041617012355</v>
       </c>
       <c r="M3">
-        <v>1.062550309695566</v>
+        <v>1.060333685670115</v>
       </c>
       <c r="N3">
-        <v>1.021078437651836</v>
+        <v>1.02031401681334</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.058076555748451</v>
+        <v>1.056322285890451</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052731812507441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050519114767042</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026557372465207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035914159928429</v>
+        <v>1.033400696542307</v>
       </c>
       <c r="D4">
-        <v>1.050606712474843</v>
+        <v>1.047278120763029</v>
       </c>
       <c r="E4">
-        <v>1.045952996752091</v>
+        <v>1.043741481508902</v>
       </c>
       <c r="F4">
-        <v>1.054386604783903</v>
+        <v>1.052030992134523</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057663576766058</v>
+        <v>1.056086622924688</v>
       </c>
       <c r="J4">
-        <v>1.054441751303247</v>
+        <v>1.051986950556546</v>
       </c>
       <c r="K4">
-        <v>1.060130441691801</v>
+        <v>1.056837556884366</v>
       </c>
       <c r="L4">
-        <v>1.055526725459373</v>
+        <v>1.053339162434292</v>
       </c>
       <c r="M4">
-        <v>1.063870120357752</v>
+        <v>1.061539527142992</v>
       </c>
       <c r="N4">
-        <v>1.021564265891983</v>
+        <v>1.020660932460853</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.059121072010054</v>
+        <v>1.057276607611313</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053585758831985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.051265920165613</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026782375131448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036947263988056</v>
+        <v>1.034379960802454</v>
       </c>
       <c r="D5">
-        <v>1.051331582180645</v>
+        <v>1.047939990411891</v>
       </c>
       <c r="E5">
-        <v>1.04676612721416</v>
+        <v>1.044505995143232</v>
       </c>
       <c r="F5">
-        <v>1.055157494791019</v>
+        <v>1.052754507956029</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057931826988165</v>
+        <v>1.056320604673622</v>
       </c>
       <c r="J5">
-        <v>1.055019965353524</v>
+        <v>1.052510810303159</v>
       </c>
       <c r="K5">
-        <v>1.060637495503309</v>
+        <v>1.057281327652565</v>
       </c>
       <c r="L5">
-        <v>1.056119790385351</v>
+        <v>1.053883485836419</v>
       </c>
       <c r="M5">
-        <v>1.064423781358213</v>
+        <v>1.062045642314787</v>
       </c>
       <c r="N5">
-        <v>1.021768499828868</v>
+        <v>1.020806878207887</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.05955924649855</v>
+        <v>1.05767715468571</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053951314528295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051587446166684</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026877125920666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037125572823221</v>
+        <v>1.034548823410651</v>
       </c>
       <c r="D6">
-        <v>1.051459270641291</v>
+        <v>1.048056754104278</v>
       </c>
       <c r="E6">
-        <v>1.046907351237674</v>
+        <v>1.044638677782604</v>
       </c>
       <c r="F6">
-        <v>1.055291413912951</v>
+        <v>1.052880154449021</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057980298006465</v>
+        <v>1.056363060875496</v>
       </c>
       <c r="J6">
-        <v>1.055121999936269</v>
+        <v>1.052603315482143</v>
       </c>
       <c r="K6">
-        <v>1.060728587830668</v>
+        <v>1.057361448021191</v>
       </c>
       <c r="L6">
-        <v>1.056224059236452</v>
+        <v>1.053979193839289</v>
       </c>
       <c r="M6">
-        <v>1.064521220539247</v>
+        <v>1.062134780964478</v>
       </c>
       <c r="N6">
-        <v>1.021805330841216</v>
+        <v>1.020833227009353</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059636361103009</v>
+        <v>1.057747700317156</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.054024305193501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051653552149593</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026894991168823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035942638529323</v>
+        <v>1.033436263407337</v>
       </c>
       <c r="D7">
-        <v>1.050633458033236</v>
+        <v>1.047309846943923</v>
       </c>
       <c r="E7">
-        <v>1.045977583874847</v>
+        <v>1.043772157938754</v>
       </c>
       <c r="F7">
-        <v>1.054409930003803</v>
+        <v>1.052059219272547</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057677126414078</v>
+        <v>1.056103688467043</v>
       </c>
       <c r="J7">
-        <v>1.054463796103379</v>
+        <v>1.052015892136961</v>
       </c>
       <c r="K7">
-        <v>1.060154091994925</v>
+        <v>1.056866120118005</v>
       </c>
       <c r="L7">
-        <v>1.055548220918018</v>
+        <v>1.053366671766327</v>
       </c>
       <c r="M7">
-        <v>1.063890402367219</v>
+        <v>1.061564649236788</v>
       </c>
       <c r="N7">
-        <v>1.021574220856327</v>
+        <v>1.020696780297983</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.059137123459494</v>
+        <v>1.057296489614923</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053622225086259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051307868363918</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026791567940909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030899743092307</v>
+        <v>1.028677175313026</v>
       </c>
       <c r="D8">
-        <v>1.047114754309142</v>
+        <v>1.044114847257873</v>
       </c>
       <c r="E8">
-        <v>1.042023377236655</v>
+        <v>1.040073486292249</v>
       </c>
       <c r="F8">
-        <v>1.050663581335963</v>
+        <v>1.048559286488652</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056363318460453</v>
+        <v>1.054967809651789</v>
       </c>
       <c r="J8">
-        <v>1.051648061830348</v>
+        <v>1.049485001320938</v>
       </c>
       <c r="K8">
-        <v>1.057692216889155</v>
+        <v>1.054728657964</v>
       </c>
       <c r="L8">
-        <v>1.052662682990079</v>
+        <v>1.050736676119653</v>
       </c>
       <c r="M8">
-        <v>1.061198377322116</v>
+        <v>1.059119338591333</v>
       </c>
       <c r="N8">
-        <v>1.020582961610713</v>
+        <v>1.020047981097197</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.057006616450973</v>
+        <v>1.055361231494599</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051886027918535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049801510852266</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026336422460495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021647350352884</v>
+        <v>1.019929131177079</v>
       </c>
       <c r="D9">
-        <v>1.040681601687585</v>
+        <v>1.038261591961881</v>
       </c>
       <c r="E9">
-        <v>1.034811028112756</v>
+        <v>1.03331506084895</v>
       </c>
       <c r="F9">
-        <v>1.043840499172791</v>
+        <v>1.042175951380391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053884952261197</v>
+        <v>1.052805361181781</v>
       </c>
       <c r="J9">
-        <v>1.046458179588551</v>
+        <v>1.044797249435363</v>
       </c>
       <c r="K9">
-        <v>1.053147412914073</v>
+        <v>1.050762970178242</v>
       </c>
       <c r="L9">
-        <v>1.04736348516852</v>
+        <v>1.045889797597392</v>
       </c>
       <c r="M9">
-        <v>1.056260198631466</v>
+        <v>1.054619904746341</v>
       </c>
       <c r="N9">
-        <v>1.018750300183537</v>
+        <v>1.018753907741445</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.053098455960712</v>
+        <v>1.051800294389955</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04866952657736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046994187538524</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025467227057069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015310273370392</v>
+        <v>1.013981842872108</v>
       </c>
       <c r="D10">
-        <v>1.036322912866822</v>
+        <v>1.034332373620855</v>
       </c>
       <c r="E10">
-        <v>1.029931708572311</v>
+        <v>1.028784212566725</v>
       </c>
       <c r="F10">
-        <v>1.039261442969768</v>
+        <v>1.037929347014819</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052177556845878</v>
+        <v>1.05133543474751</v>
       </c>
       <c r="J10">
-        <v>1.042929345230139</v>
+        <v>1.041651499149691</v>
       </c>
       <c r="K10">
-        <v>1.050065918603015</v>
+        <v>1.048108232239971</v>
       </c>
       <c r="L10">
-        <v>1.043780778853494</v>
+        <v>1.042652505884466</v>
       </c>
       <c r="M10">
-        <v>1.052956245350536</v>
+        <v>1.051645957479474</v>
       </c>
       <c r="N10">
-        <v>1.01751402409343</v>
+        <v>1.018005733218347</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.050534335348477</v>
+        <v>1.049497406680723</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.0465073333672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.045135412585056</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024886661186916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013154678880005</v>
+        <v>1.011972288128076</v>
       </c>
       <c r="D11">
-        <v>1.035019790986543</v>
+        <v>1.033178723044872</v>
       </c>
       <c r="E11">
-        <v>1.028497543438385</v>
+        <v>1.027474744192434</v>
       </c>
       <c r="F11">
-        <v>1.038156916451739</v>
+        <v>1.036944107419933</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051799628757655</v>
+        <v>1.051037175309784</v>
       </c>
       <c r="J11">
-        <v>1.041990265737452</v>
+        <v>1.040855350321263</v>
       </c>
       <c r="K11">
-        <v>1.04931018288354</v>
+        <v>1.047500936018221</v>
       </c>
       <c r="L11">
-        <v>1.042901330857383</v>
+        <v>1.041896483194872</v>
       </c>
       <c r="M11">
-        <v>1.05239342212586</v>
+        <v>1.051201395476039</v>
       </c>
       <c r="N11">
-        <v>1.01727321832293</v>
+        <v>1.018077254399045</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.050519160282346</v>
+        <v>1.049576282309688</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.046005372633941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044741623787458</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024824047182939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012588155143677</v>
+        <v>1.011428857159079</v>
       </c>
       <c r="D12">
-        <v>1.034758087647146</v>
+        <v>1.032940635955043</v>
       </c>
       <c r="E12">
-        <v>1.028226902393414</v>
+        <v>1.02722001160934</v>
       </c>
       <c r="F12">
-        <v>1.038079154347993</v>
+        <v>1.036884472074892</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051799817629978</v>
+        <v>1.051045295561634</v>
       </c>
       <c r="J12">
-        <v>1.041869153908485</v>
+        <v>1.040757281362579</v>
       </c>
       <c r="K12">
-        <v>1.049248357568769</v>
+        <v>1.047462833275806</v>
       </c>
       <c r="L12">
-        <v>1.0428325892279</v>
+        <v>1.041843661427115</v>
       </c>
       <c r="M12">
-        <v>1.052511456500289</v>
+        <v>1.05133757151181</v>
       </c>
       <c r="N12">
-        <v>1.01730059914824</v>
+        <v>1.018198859213218</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.050934848904709</v>
+        <v>1.050006627491534</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045961661325996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044714685116098</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024866432260756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013227299137182</v>
+        <v>1.011982768920258</v>
       </c>
       <c r="D13">
-        <v>1.035303129896288</v>
+        <v>1.033401974539795</v>
       </c>
       <c r="E13">
-        <v>1.028853004805248</v>
+        <v>1.027766355330998</v>
       </c>
       <c r="F13">
-        <v>1.038811712853667</v>
+        <v>1.037547555546416</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052108210571794</v>
+        <v>1.051299069994599</v>
       </c>
       <c r="J13">
-        <v>1.042391602486266</v>
+        <v>1.041197714030574</v>
       </c>
       <c r="K13">
-        <v>1.049741981233633</v>
+        <v>1.047874070626161</v>
       </c>
       <c r="L13">
-        <v>1.043405293904619</v>
+        <v>1.042337937108755</v>
       </c>
       <c r="M13">
-        <v>1.053189624325099</v>
+        <v>1.05194736244252</v>
       </c>
       <c r="N13">
-        <v>1.017546749276704</v>
+        <v>1.018337227216576</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.051744660480083</v>
+        <v>1.050762613396343</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046308204143002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045002731687617</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024998171322307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014221956514785</v>
+        <v>1.01286972043463</v>
       </c>
       <c r="D14">
-        <v>1.036051901158729</v>
+        <v>1.034044487463666</v>
       </c>
       <c r="E14">
-        <v>1.029698098224041</v>
+        <v>1.028513505853173</v>
       </c>
       <c r="F14">
-        <v>1.039692514808447</v>
+        <v>1.038340983985927</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052464215702948</v>
+        <v>1.051589408461256</v>
       </c>
       <c r="J14">
-        <v>1.043049651531966</v>
+        <v>1.041751638488802</v>
       </c>
       <c r="K14">
-        <v>1.05034063889625</v>
+        <v>1.048367884162781</v>
       </c>
       <c r="L14">
-        <v>1.044097137260465</v>
+        <v>1.042933304595283</v>
       </c>
       <c r="M14">
-        <v>1.053918836677895</v>
+        <v>1.052590410932525</v>
       </c>
       <c r="N14">
-        <v>1.017818563194635</v>
+        <v>1.018443736793958</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.052492722359213</v>
+        <v>1.051442699439222</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046732866269591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045353400621607</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025131867967819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014733747940593</v>
+        <v>1.013332072599938</v>
       </c>
       <c r="D15">
-        <v>1.03641914111977</v>
+        <v>1.034362663017168</v>
       </c>
       <c r="E15">
-        <v>1.030108559113209</v>
+        <v>1.028879726387302</v>
       </c>
       <c r="F15">
-        <v>1.040097211423629</v>
+        <v>1.038705618500204</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052623539948437</v>
+        <v>1.051719407703482</v>
       </c>
       <c r="J15">
-        <v>1.043358714262183</v>
+        <v>1.04201275015048</v>
       </c>
       <c r="K15">
-        <v>1.050617143732806</v>
+        <v>1.048595900278717</v>
       </c>
       <c r="L15">
-        <v>1.044415261922126</v>
+        <v>1.043207796735412</v>
       </c>
       <c r="M15">
-        <v>1.054232644257807</v>
+        <v>1.052864657247111</v>
       </c>
       <c r="N15">
-        <v>1.017936238978395</v>
+        <v>1.018479363202977</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.052777958534385</v>
+        <v>1.051696693403632</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046934140105406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045520962364613</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025187341232711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01729600381412</v>
+        <v>1.015684251592121</v>
       </c>
       <c r="D16">
-        <v>1.038165526331359</v>
+        <v>1.03589609766354</v>
       </c>
       <c r="E16">
-        <v>1.03205788859971</v>
+        <v>1.030644287038388</v>
       </c>
       <c r="F16">
-        <v>1.041918774173547</v>
+        <v>1.040355977679528</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053302379396818</v>
+        <v>1.052276910148528</v>
       </c>
       <c r="J16">
-        <v>1.044765163787693</v>
+        <v>1.043214276389117</v>
       </c>
       <c r="K16">
-        <v>1.051843507125186</v>
+        <v>1.049611267728737</v>
       </c>
       <c r="L16">
-        <v>1.045836434862423</v>
+        <v>1.044446327770423</v>
       </c>
       <c r="M16">
-        <v>1.055535706723503</v>
+        <v>1.053998261063498</v>
       </c>
       <c r="N16">
-        <v>1.018417002846216</v>
+        <v>1.018593295606834</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.0537695501443</v>
+        <v>1.052554309519293</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047804313598829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.046242258067194</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025399755837554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018742068774146</v>
+        <v>1.017035937823012</v>
       </c>
       <c r="D17">
-        <v>1.039114217784232</v>
+        <v>1.036744923027608</v>
       </c>
       <c r="E17">
-        <v>1.033111884487287</v>
+        <v>1.031616451227564</v>
       </c>
       <c r="F17">
-        <v>1.042851980459771</v>
+        <v>1.041210857606054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05363461452722</v>
+        <v>1.05255542296318</v>
       </c>
       <c r="J17">
-        <v>1.045498592670953</v>
+        <v>1.043854832828812</v>
       </c>
       <c r="K17">
-        <v>1.052469512098945</v>
+        <v>1.050137959296127</v>
       </c>
       <c r="L17">
-        <v>1.046563225128417</v>
+        <v>1.045091944310171</v>
       </c>
       <c r="M17">
-        <v>1.056148179885144</v>
+        <v>1.054532936668809</v>
       </c>
       <c r="N17">
-        <v>1.018643078771382</v>
+        <v>1.018654493546113</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.054125926644733</v>
+        <v>1.052849067419993</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.048249455972581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046617432682237</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025494086376119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01934456094673</v>
+        <v>1.017623680111638</v>
       </c>
       <c r="D18">
-        <v>1.039438404344074</v>
+        <v>1.03704927685709</v>
       </c>
       <c r="E18">
-        <v>1.033465000051844</v>
+        <v>1.031959160165295</v>
       </c>
       <c r="F18">
-        <v>1.043065396378474</v>
+        <v>1.041410748435717</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053684669937558</v>
+        <v>1.052599450520504</v>
       </c>
       <c r="J18">
-        <v>1.045696160620534</v>
+        <v>1.044037030432249</v>
       </c>
       <c r="K18">
-        <v>1.05260941631606</v>
+        <v>1.050257733036486</v>
       </c>
       <c r="L18">
-        <v>1.046730047584877</v>
+        <v>1.045248133338574</v>
       </c>
       <c r="M18">
-        <v>1.056179982224229</v>
+        <v>1.054551013796141</v>
       </c>
       <c r="N18">
-        <v>1.018659153087927</v>
+        <v>1.01862827102736</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.053916085900898</v>
+        <v>1.052628113912606</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048336917902859</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046689523348528</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025483560328354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019210827237073</v>
+        <v>1.017535970926839</v>
       </c>
       <c r="D19">
-        <v>1.039227836558955</v>
+        <v>1.036882294975352</v>
       </c>
       <c r="E19">
-        <v>1.033207783330604</v>
+        <v>1.031746159441216</v>
       </c>
       <c r="F19">
-        <v>1.042648331110287</v>
+        <v>1.041030481388942</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053500626047031</v>
+        <v>1.052446228085774</v>
       </c>
       <c r="J19">
-        <v>1.045436709490124</v>
+        <v>1.043821620856212</v>
       </c>
       <c r="K19">
-        <v>1.052341037250537</v>
+        <v>1.050032078550491</v>
       </c>
       <c r="L19">
-        <v>1.046415304891598</v>
+        <v>1.044976794068793</v>
       </c>
       <c r="M19">
-        <v>1.055708559811694</v>
+        <v>1.054115709740065</v>
       </c>
       <c r="N19">
-        <v>1.018502858400796</v>
+        <v>1.01851412506058</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053222033313294</v>
+        <v>1.051962217461061</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048153465863781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046536906046792</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025387639505449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016993453396019</v>
+        <v>1.015533210579839</v>
       </c>
       <c r="D20">
-        <v>1.037496939182155</v>
+        <v>1.035370930875356</v>
       </c>
       <c r="E20">
-        <v>1.031233011575338</v>
+        <v>1.029967868951983</v>
       </c>
       <c r="F20">
-        <v>1.040483493971795</v>
+        <v>1.039042586715299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052650764115933</v>
+        <v>1.051730186941206</v>
       </c>
       <c r="J20">
-        <v>1.0438846653165</v>
+        <v>1.042478211307</v>
       </c>
       <c r="K20">
-        <v>1.050911007920023</v>
+        <v>1.048819087759506</v>
       </c>
       <c r="L20">
-        <v>1.044748032917958</v>
+        <v>1.043503471465831</v>
       </c>
       <c r="M20">
-        <v>1.053849978091938</v>
+        <v>1.052431984968042</v>
       </c>
       <c r="N20">
-        <v>1.017855785034175</v>
+        <v>1.018138162869652</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051231222525971</v>
+        <v>1.050109045639055</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047146275554176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045683559034954</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025046114638421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012113046185861</v>
+        <v>1.011092169805459</v>
       </c>
       <c r="D21">
-        <v>1.034113849783989</v>
+        <v>1.032427630690558</v>
       </c>
       <c r="E21">
-        <v>1.027445226101503</v>
+        <v>1.026572380882091</v>
       </c>
       <c r="F21">
-        <v>1.036884058685384</v>
+        <v>1.03580132987132</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051281681983249</v>
+        <v>1.050620389578482</v>
       </c>
       <c r="J21">
-        <v>1.041112912937165</v>
+        <v>1.040133342515024</v>
       </c>
       <c r="K21">
-        <v>1.048476518002117</v>
+        <v>1.046819637141904</v>
       </c>
       <c r="L21">
-        <v>1.041924650148702</v>
+        <v>1.041067232523768</v>
       </c>
       <c r="M21">
-        <v>1.051198796414919</v>
+        <v>1.050134761624385</v>
       </c>
       <c r="N21">
-        <v>1.016867854391062</v>
+        <v>1.017908296849598</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04909275321615</v>
+        <v>1.048250650427424</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045428234728891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044273429374964</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024606985216032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009007287119851</v>
+        <v>1.008265631898374</v>
       </c>
       <c r="D22">
-        <v>1.031970457036914</v>
+        <v>1.030563788279332</v>
       </c>
       <c r="E22">
-        <v>1.025053194968932</v>
+        <v>1.02443004974787</v>
       </c>
       <c r="F22">
-        <v>1.034627950169302</v>
+        <v>1.033773175000082</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050409168719041</v>
+        <v>1.049913050567312</v>
       </c>
       <c r="J22">
-        <v>1.039357169636223</v>
+        <v>1.038647276688413</v>
       </c>
       <c r="K22">
-        <v>1.046934108303371</v>
+        <v>1.045553149685189</v>
       </c>
       <c r="L22">
-        <v>1.04014416174694</v>
+        <v>1.03953259593837</v>
       </c>
       <c r="M22">
-        <v>1.049543277730835</v>
+        <v>1.048704010483173</v>
       </c>
       <c r="N22">
-        <v>1.016244061642074</v>
+        <v>1.017758773364224</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047782535399023</v>
+        <v>1.047118317968298</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044324398495319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043363376164124</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024328942715358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010644882797256</v>
+        <v>1.009740999342328</v>
       </c>
       <c r="D23">
-        <v>1.033093854347416</v>
+        <v>1.031527804994041</v>
       </c>
       <c r="E23">
-        <v>1.02631125427588</v>
+        <v>1.02554308354826</v>
       </c>
       <c r="F23">
-        <v>1.035814598043098</v>
+        <v>1.034828522330673</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050864196055407</v>
+        <v>1.050272743917892</v>
       </c>
       <c r="J23">
-        <v>1.040277249268829</v>
+        <v>1.03941093705721</v>
       </c>
       <c r="K23">
-        <v>1.047738724855807</v>
+        <v>1.04620056768932</v>
       </c>
       <c r="L23">
-        <v>1.041077724968299</v>
+        <v>1.040323458080251</v>
       </c>
       <c r="M23">
-        <v>1.0504112706887</v>
+        <v>1.049442625285527</v>
       </c>
       <c r="N23">
-        <v>1.016568529553517</v>
+        <v>1.017788805949887</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.048469486459849</v>
+        <v>1.047702876527097</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044883778507433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043810668321819</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024467196280727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016989769090269</v>
+        <v>1.015534763862335</v>
       </c>
       <c r="D24">
-        <v>1.037468629148346</v>
+        <v>1.03534717072726</v>
       </c>
       <c r="E24">
-        <v>1.03120566028961</v>
+        <v>1.02994569505211</v>
       </c>
       <c r="F24">
-        <v>1.040434033974643</v>
+        <v>1.038997238884734</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052621505730192</v>
+        <v>1.05170458632149</v>
       </c>
       <c r="J24">
-        <v>1.043849140921441</v>
+        <v>1.042447656791382</v>
       </c>
       <c r="K24">
-        <v>1.050868222709855</v>
+        <v>1.048780738271777</v>
       </c>
       <c r="L24">
-        <v>1.044706069104248</v>
+        <v>1.043466575881186</v>
       </c>
       <c r="M24">
-        <v>1.053786435614487</v>
+        <v>1.052372462804092</v>
       </c>
       <c r="N24">
-        <v>1.017831875957374</v>
+        <v>1.018117972414529</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.051140669296783</v>
+        <v>1.050021619989454</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.047089028391085</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045626768225022</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025028496722034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024106180913141</v>
+        <v>1.022240108335056</v>
       </c>
       <c r="D25">
-        <v>1.042397675954351</v>
+        <v>1.039813387451273</v>
       </c>
       <c r="E25">
-        <v>1.036725871114914</v>
+        <v>1.035097157754353</v>
       </c>
       <c r="F25">
-        <v>1.045650582201815</v>
+        <v>1.04385928287054</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054559971793491</v>
+        <v>1.053389204876845</v>
       </c>
       <c r="J25">
-        <v>1.047848646184713</v>
+        <v>1.046041505062062</v>
       </c>
       <c r="K25">
-        <v>1.054371636411169</v>
+        <v>1.051823563310888</v>
       </c>
       <c r="L25">
-        <v>1.048779613714453</v>
+        <v>1.04717401494064</v>
       </c>
       <c r="M25">
-        <v>1.057579278426228</v>
+        <v>1.055812861008922</v>
       </c>
       <c r="N25">
-        <v>1.019245336971066</v>
+        <v>1.01906918729511</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.054142400619015</v>
+        <v>1.052744424191217</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049563228467084</v>
+        <v>1.047775009484216</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025704009197331</v>
       </c>
     </row>
   </sheetData>
